--- a/picnicData.xlsx
+++ b/picnicData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NCSMBP01\Home\My Documents\2019_Picnic\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD4969F-2F78-4A2B-B7FA-CEE2E70AB630}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84358649-6D0B-4FA9-A96E-17D689AFC505}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activities" sheetId="1" r:id="rId1"/>
@@ -171,19 +171,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,113 +517,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>SUM(C2:C1048576)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f t="shared" ref="H2:I2" si="0">SUM(D2:D1048576)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -638,100 +628,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -742,21 +731,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="48.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
